--- a/6月份 销售结算V2.xlsx
+++ b/6月份 销售结算V2.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XLS_ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13320ADC-D83C-4204-B4D2-C22ECE54EF18}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="DLfLiIsyQdLZi8UxKl8xSkDYGs6OxqDwH37dR9K7NVHcTub0zLI2nZoVieicisg5JrV0exv1yFZ1rErdwT1aOQ==" workbookSaltValue="+u6vJlFLzClJfYgzJHnEIg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27E0005-10F6-469E-9C59-E9E743250DEA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="UzIgY9IIHhkMIdqKQMbUkn1LCpbBUdMfqzzJ552ieA+fJciZ/O7EgCrdWGvpy3HuTZkXzRfehdODbE2xGjfu9A==" workbookSaltValue="EvCo75wwl2TinGOsmcY6jA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="49" r:id="rId1"/>
@@ -39,14 +39,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'JAN 2018'!$A$3:$L$56</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -375,10 +367,19 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{55F8591D-D9C7-4E4F-BB11-9B918E01D8A9}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 This threaded comment can be viewed, but not edited in your version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924.
 Comment:
     是否需要保留？</t>
+        </r>
       </text>
     </comment>
     <comment ref="B1" authorId="1" shapeId="0" xr:uid="{38A95C61-7988-4AB5-90BD-678DCE78B6D1}">
@@ -1726,10 +1727,19 @@
     </comment>
     <comment ref="U17" authorId="1" shapeId="0" xr:uid="{7E31AB6B-7667-4FE0-A7CA-3806BA00D4B0}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 This threaded comment can be viewed, but not edited in your version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924.
 Comment:
     公式与其它不同</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -1746,10 +1756,19 @@
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A28F60A3-6278-4ECB-A9AF-258AE5E86954}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 This threaded comment can be viewed, but not edited in your version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924.
 Comment:
     第一行控制由哪个Sheet作为数据源</t>
+        </r>
       </text>
     </comment>
     <comment ref="B2" authorId="1" shapeId="0" xr:uid="{9B23389E-02CD-4931-9E23-E466D3159D80}">
@@ -1994,10 +2013,19 @@
     </comment>
     <comment ref="A4" authorId="2" shapeId="0" xr:uid="{561F1832-7BEF-4587-A05A-BACD3803E59C}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 This threaded comment can be viewed, but not edited in your version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924.
 Comment:
     公式行，请勿删除，请慎重修改。蓝色表示包含公式。</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -5503,7 +5531,7 @@
     <numFmt numFmtId="188" formatCode="[$¥-804]#,##0.00"/>
     <numFmt numFmtId="189" formatCode="0.000"/>
   </numFmts>
-  <fonts count="81">
+  <fonts count="80">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6049,12 +6077,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -7847,6 +7869,207 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="186" fontId="12" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="23" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="14" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="28" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="8" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="8" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="78" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="13" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="16" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="23" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="28" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="78" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="20" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="23" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="23" fillId="14" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="14" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -7968,207 +8191,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="12" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="23" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="14" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="28" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="8" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="8" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="78" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="13" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="16" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="23" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="28" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="78" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="20" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="23" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="23" fillId="14" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="14" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8802,22 +8824,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1">
-      <c r="A1" s="501" t="s">
+      <c r="A1" s="568" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="501"/>
-      <c r="C1" s="501"/>
-      <c r="D1" s="501"/>
-      <c r="E1" s="501"/>
-      <c r="F1" s="501"/>
-      <c r="G1" s="501"/>
-      <c r="H1" s="501"/>
-      <c r="I1" s="501"/>
-      <c r="J1" s="501"/>
-      <c r="K1" s="501"/>
-      <c r="L1" s="501"/>
-      <c r="M1" s="501"/>
-      <c r="N1" s="501"/>
+      <c r="B1" s="568"/>
+      <c r="C1" s="568"/>
+      <c r="D1" s="568"/>
+      <c r="E1" s="568"/>
+      <c r="F1" s="568"/>
+      <c r="G1" s="568"/>
+      <c r="H1" s="568"/>
+      <c r="I1" s="568"/>
+      <c r="J1" s="568"/>
+      <c r="K1" s="568"/>
+      <c r="L1" s="568"/>
+      <c r="M1" s="568"/>
+      <c r="N1" s="568"/>
     </row>
     <row r="2" spans="1:14" ht="27">
       <c r="A2" s="163" t="s">
@@ -9055,10 +9077,10 @@
       <c r="G7" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="497">
+      <c r="H7" s="564">
         <v>9773</v>
       </c>
-      <c r="I7" s="499">
+      <c r="I7" s="566">
         <v>11840</v>
       </c>
       <c r="J7" s="91"/>
@@ -9097,8 +9119,8 @@
       <c r="G8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="498"/>
-      <c r="I8" s="500"/>
+      <c r="H8" s="565"/>
+      <c r="I8" s="567"/>
       <c r="J8" s="72"/>
       <c r="K8" s="70" t="s">
         <v>29</v>
@@ -11038,11 +11060,11 @@
       <c r="N55" s="381"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="502" t="s">
+      <c r="A56" s="569" t="s">
         <v>199</v>
       </c>
-      <c r="B56" s="503"/>
-      <c r="C56" s="504"/>
+      <c r="B56" s="570"/>
+      <c r="C56" s="571"/>
       <c r="D56" s="132">
         <f>SUM(D3:D55)</f>
         <v>3240480.4123961665</v>
@@ -11119,7 +11141,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0AGqTBYw8ikUxcP5ce5H2gGWZTpnHrdC1SD6uXfehfgGjIGmDRZ1daE3CzmExrM7GlSee8sbw5qCPpy0YJNzUA==" saltValue="t8TL3hBx7c3MFYa5F/UfXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tZ01STCv3urGQsWXI2Bvfh0DfUC2EPJIDGSh3X0+83Bt71/M2hDQxBa3pH3Oon0SU4RL3BLZc5awyqEIVIZlHA==" saltValue="D57Maitt25MypidkX/gHcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B2:N56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="H7:H8"/>
@@ -11138,42 +11160,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E02172-7BDF-40AB-8428-CD8A59BEFAD8}">
   <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="490" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="490" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="540" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="540" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21" style="541" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="541" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="499" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="499" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21" style="500" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="500" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" style="490" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.5703125" style="541" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="541" customWidth="1"/>
-    <col min="12" max="12" width="27.5703125" style="541" customWidth="1"/>
-    <col min="13" max="13" width="28" style="541" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" style="540" customWidth="1"/>
-    <col min="15" max="16" width="19" style="541" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="541" customWidth="1"/>
-    <col min="18" max="19" width="15.42578125" style="541" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" style="541" customWidth="1"/>
-    <col min="21" max="21" width="22.140625" style="541" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" style="541" customWidth="1"/>
-    <col min="23" max="23" width="9" style="541" customWidth="1"/>
-    <col min="24" max="24" width="24.42578125" style="541" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" style="541" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" style="541" customWidth="1"/>
-    <col min="27" max="27" width="9" style="541" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" style="541" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.7109375" style="541" customWidth="1"/>
-    <col min="30" max="30" width="15.42578125" style="540" customWidth="1"/>
-    <col min="31" max="31" width="22" style="540" customWidth="1"/>
-    <col min="32" max="32" width="17.85546875" style="583" customWidth="1"/>
-    <col min="33" max="33" width="21.28515625" style="583" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="540"/>
+    <col min="9" max="10" width="19.5703125" style="500" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="500" customWidth="1"/>
+    <col min="12" max="12" width="27.5703125" style="500" customWidth="1"/>
+    <col min="13" max="13" width="28" style="500" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" style="499" customWidth="1"/>
+    <col min="15" max="16" width="19" style="500" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="500" customWidth="1"/>
+    <col min="18" max="19" width="15.42578125" style="500" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" style="500" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" style="500" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" style="500" customWidth="1"/>
+    <col min="23" max="23" width="9" style="500" customWidth="1"/>
+    <col min="24" max="24" width="24.42578125" style="500" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="500" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" style="500" customWidth="1"/>
+    <col min="27" max="27" width="9" style="500" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" style="500" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.7109375" style="500" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" style="499" customWidth="1"/>
+    <col min="31" max="31" width="22" style="499" customWidth="1"/>
+    <col min="32" max="32" width="17.85546875" style="542" customWidth="1"/>
+    <col min="33" max="33" width="21.28515625" style="542" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="499"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -11183,702 +11205,702 @@
       <c r="B1" s="490" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="540" t="s">
+      <c r="C1" s="499" t="s">
         <v>363</v>
       </c>
-      <c r="D1" s="540" t="s">
+      <c r="D1" s="499" t="s">
         <v>362</v>
       </c>
-      <c r="E1" s="541" t="s">
+      <c r="E1" s="500" t="s">
         <v>363</v>
       </c>
-      <c r="H1" s="540" t="s">
+      <c r="H1" s="499" t="s">
         <v>363</v>
       </c>
-      <c r="I1" s="540" t="s">
+      <c r="I1" s="499" t="s">
         <v>363</v>
       </c>
-      <c r="J1" s="540"/>
-      <c r="M1" s="540" t="s">
+      <c r="J1" s="499"/>
+      <c r="M1" s="499" t="s">
         <v>362</v>
       </c>
-      <c r="N1" s="540" t="s">
+      <c r="N1" s="499" t="s">
         <v>363</v>
       </c>
-      <c r="P1" s="541" t="s">
+      <c r="P1" s="500" t="s">
         <v>362</v>
       </c>
-      <c r="S1" s="542" t="s">
+      <c r="S1" s="501" t="s">
         <v>362</v>
       </c>
-      <c r="T1" s="542" t="s">
+      <c r="T1" s="501" t="s">
         <v>362</v>
       </c>
-      <c r="AA1" s="542" t="s">
+      <c r="AA1" s="501" t="s">
         <v>362</v>
       </c>
-      <c r="AD1" s="543" t="s">
+      <c r="AD1" s="502" t="s">
         <v>362</v>
       </c>
-      <c r="AE1" s="540" t="s">
+      <c r="AE1" s="499" t="s">
         <v>362</v>
       </c>
-      <c r="AF1" s="540" t="s">
+      <c r="AF1" s="499" t="s">
         <v>362</v>
       </c>
-      <c r="AG1" s="540" t="s">
+      <c r="AG1" s="499" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="559" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A2" s="544" t="s">
+    <row r="2" spans="1:33" s="518" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A2" s="503" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="545" t="s">
+      <c r="B2" s="504" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="546" t="s">
+      <c r="C2" s="505" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="546" t="s">
+      <c r="D2" s="505" t="s">
         <v>358</v>
       </c>
-      <c r="E2" s="547" t="s">
+      <c r="E2" s="506" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="547" t="s">
+      <c r="F2" s="506" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="548" t="s">
+      <c r="G2" s="507" t="s">
         <v>228</v>
       </c>
-      <c r="H2" s="549" t="s">
+      <c r="H2" s="508" t="s">
         <v>359</v>
       </c>
-      <c r="I2" s="550" t="s">
+      <c r="I2" s="509" t="s">
         <v>360</v>
       </c>
-      <c r="J2" s="550" t="s">
+      <c r="J2" s="509" t="s">
         <v>360</v>
       </c>
-      <c r="K2" s="548" t="s">
+      <c r="K2" s="507" t="s">
         <v>256</v>
       </c>
-      <c r="L2" s="548" t="s">
+      <c r="L2" s="507" t="s">
         <v>257</v>
       </c>
-      <c r="M2" s="551" t="s">
+      <c r="M2" s="510" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="552" t="s">
+      <c r="N2" s="511" t="s">
         <v>361</v>
       </c>
-      <c r="O2" s="547" t="s">
+      <c r="O2" s="506" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="547" t="s">
+      <c r="P2" s="506" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="548" t="s">
+      <c r="Q2" s="507" t="s">
         <v>229</v>
       </c>
-      <c r="R2" s="548" t="s">
+      <c r="R2" s="507" t="s">
         <v>367</v>
       </c>
-      <c r="S2" s="547" t="s">
+      <c r="S2" s="506" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="547" t="s">
+      <c r="T2" s="506" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="548" t="str">
+      <c r="U2" s="507" t="str">
         <f>IF(ROW($U2)=2,"单个订单换汇","-")</f>
         <v>单个订单换汇</v>
       </c>
-      <c r="V2" s="548" t="s">
+      <c r="V2" s="507" t="s">
         <v>259</v>
       </c>
-      <c r="W2" s="548" t="s">
+      <c r="W2" s="507" t="s">
         <v>366</v>
       </c>
-      <c r="X2" s="553" t="s">
+      <c r="X2" s="512" t="s">
         <v>364</v>
       </c>
-      <c r="Y2" s="548" t="s">
+      <c r="Y2" s="507" t="s">
         <v>260</v>
       </c>
-      <c r="Z2" s="548" t="s">
+      <c r="Z2" s="507" t="s">
         <v>261</v>
       </c>
-      <c r="AA2" s="554" t="s">
+      <c r="AA2" s="513" t="s">
         <v>304</v>
       </c>
-      <c r="AB2" s="548" t="s">
+      <c r="AB2" s="507" t="s">
         <v>262</v>
       </c>
-      <c r="AC2" s="555" t="s">
+      <c r="AC2" s="514" t="s">
         <v>263</v>
       </c>
-      <c r="AD2" s="546" t="s">
+      <c r="AD2" s="505" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="556" t="s">
+      <c r="AE2" s="515" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="557" t="s">
+      <c r="AF2" s="516" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="558" t="s">
+      <c r="AG2" s="517" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="561" customFormat="1">
-      <c r="A3" s="560"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="561" t="s">
+    <row r="3" spans="1:33" s="520" customFormat="1">
+      <c r="A3" s="519"/>
+      <c r="B3" s="519"/>
+      <c r="C3" s="520" t="s">
         <v>203</v>
       </c>
-      <c r="D3" s="561" t="s">
+      <c r="D3" s="520" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="562"/>
-      <c r="F3" s="563"/>
-      <c r="G3" s="563"/>
-      <c r="H3" s="564"/>
-      <c r="I3" s="565"/>
-      <c r="J3" s="563" t="s">
+      <c r="E3" s="521"/>
+      <c r="F3" s="522"/>
+      <c r="G3" s="522"/>
+      <c r="H3" s="523"/>
+      <c r="I3" s="524"/>
+      <c r="J3" s="522" t="s">
         <v>218</v>
       </c>
-      <c r="K3" s="563" t="s">
+      <c r="K3" s="522" t="s">
         <v>219</v>
       </c>
-      <c r="L3" s="563" t="s">
+      <c r="L3" s="522" t="s">
         <v>220</v>
       </c>
-      <c r="M3" s="563" t="s">
+      <c r="M3" s="522" t="s">
         <v>221</v>
       </c>
-      <c r="N3" s="561" t="s">
+      <c r="N3" s="520" t="s">
         <v>203</v>
       </c>
-      <c r="O3" s="563" t="s">
+      <c r="O3" s="522" t="s">
         <v>222</v>
       </c>
-      <c r="P3" s="563"/>
-      <c r="Q3" s="563"/>
-      <c r="R3" s="563" t="s">
+      <c r="P3" s="522"/>
+      <c r="Q3" s="522"/>
+      <c r="R3" s="522" t="s">
         <v>223</v>
       </c>
-      <c r="S3" s="563" t="s">
+      <c r="S3" s="522" t="s">
         <v>224</v>
       </c>
-      <c r="T3" s="563" t="s">
+      <c r="T3" s="522" t="s">
         <v>225</v>
       </c>
-      <c r="U3" s="563" t="s">
+      <c r="U3" s="522" t="s">
         <v>399</v>
       </c>
-      <c r="V3" s="566"/>
-      <c r="W3" s="563"/>
-      <c r="X3" s="565" t="s">
+      <c r="V3" s="525"/>
+      <c r="W3" s="522"/>
+      <c r="X3" s="524" t="s">
         <v>400</v>
       </c>
-      <c r="Y3" s="565" t="s">
+      <c r="Y3" s="524" t="s">
         <v>226</v>
       </c>
-      <c r="Z3" s="565" t="s">
+      <c r="Z3" s="524" t="s">
         <v>401</v>
       </c>
-      <c r="AA3" s="565" t="s">
+      <c r="AA3" s="524" t="s">
         <v>402</v>
       </c>
-      <c r="AB3" s="565" t="s">
+      <c r="AB3" s="524" t="s">
         <v>403</v>
       </c>
-      <c r="AC3" s="565" t="s">
+      <c r="AC3" s="524" t="s">
         <v>405</v>
       </c>
-      <c r="AD3" s="561" t="s">
+      <c r="AD3" s="520" t="s">
         <v>203</v>
       </c>
-      <c r="AE3" s="561" t="s">
+      <c r="AE3" s="520" t="s">
         <v>203</v>
       </c>
-      <c r="AF3" s="567"/>
-      <c r="AG3" s="567"/>
-    </row>
-    <row r="4" spans="1:33" s="582" customFormat="1" ht="42.75" hidden="1" customHeight="1">
-      <c r="A4" s="568"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="570"/>
-      <c r="D4" s="570"/>
-      <c r="E4" s="571"/>
-      <c r="F4" s="572" t="str">
-        <f>IF($D4="","",SUMIF(C:C,$D4,E:E))</f>
+      <c r="AF3" s="526"/>
+      <c r="AG3" s="526"/>
+    </row>
+    <row r="4" spans="1:33" s="541" customFormat="1" ht="42.75" hidden="1" customHeight="1">
+      <c r="A4" s="527"/>
+      <c r="B4" s="528"/>
+      <c r="C4" s="529"/>
+      <c r="D4" s="529"/>
+      <c r="E4" s="530"/>
+      <c r="F4" s="531" t="str">
+        <f t="shared" ref="F4:F14" si="0">IF($D4="","",SUMIF(C:C,$D4,E:E))</f>
         <v/>
       </c>
-      <c r="G4" s="571"/>
-      <c r="H4" s="573"/>
-      <c r="I4" s="574"/>
-      <c r="J4" s="574" t="str">
-        <f>IF($D4="","",SUMIF(C:C,$D4,I:I))</f>
+      <c r="G4" s="530"/>
+      <c r="H4" s="532"/>
+      <c r="I4" s="533"/>
+      <c r="J4" s="533" t="str">
+        <f t="shared" ref="J4:J14" si="1">IF($D4="","",SUMIF(C:C,$D4,I:I))</f>
         <v/>
       </c>
-      <c r="K4" s="572" t="str">
-        <f>IF($C4="","",I4/SUMIF(D:D,$C4,J:J))</f>
+      <c r="K4" s="531" t="str">
+        <f t="shared" ref="K4:K14" si="2">IF($C4="","",I4/SUMIF(D:D,$C4,J:J))</f>
         <v/>
       </c>
-      <c r="L4" s="575" t="str">
+      <c r="L4" s="534" t="str">
         <f>IF($C4="","",VLOOKUP(H4,汇率!$B$3:F104,5,0))</f>
         <v/>
       </c>
-      <c r="M4" s="576"/>
-      <c r="N4" s="577"/>
-      <c r="O4" s="572" t="str">
-        <f>IF($C4="","",K4*SUMIF(D:D,$C4,P:P))</f>
+      <c r="M4" s="535"/>
+      <c r="N4" s="536"/>
+      <c r="O4" s="531" t="str">
+        <f t="shared" ref="O4:O14" si="3">IF($C4="","",K4*SUMIF(D:D,$C4,P:P))</f>
         <v/>
       </c>
-      <c r="P4" s="571"/>
-      <c r="Q4" s="571" t="str">
-        <f t="shared" ref="Q4" si="0">IF(C4="","",I4-O4)</f>
+      <c r="P4" s="530"/>
+      <c r="Q4" s="530" t="str">
+        <f t="shared" ref="Q4" si="4">IF(C4="","",I4-O4)</f>
         <v/>
       </c>
-      <c r="R4" s="572" t="str">
-        <f>IF($D4="","",SUMIF(C:C,$D4,Q:Q))</f>
+      <c r="R4" s="531" t="str">
+        <f t="shared" ref="R4:R14" si="5">IF($D4="","",SUMIF(C:C,$D4,Q:Q))</f>
         <v/>
       </c>
-      <c r="S4" s="572"/>
-      <c r="T4" s="571"/>
-      <c r="U4" s="575" t="str">
-        <f t="shared" ref="U4" si="1">IF($D4="","",SUM(M4,S4,T4)/R4*1.005)</f>
+      <c r="S4" s="531"/>
+      <c r="T4" s="530"/>
+      <c r="U4" s="534" t="str">
+        <f t="shared" ref="U4" si="6">IF($D4="","",SUM(M4,S4,T4)/R4*1.005)</f>
         <v/>
       </c>
-      <c r="V4" s="575" t="str">
-        <f t="shared" ref="V4" si="2">IF(C4="","",IF(N4="N",L4*1.16/(1.16-0.09)-0.3,IF(N4=0,"错误",IF(I4&gt;N4,N4/I4*(L4*1.16/(1.16-0.13)-0.3)+(1-N4/I4)*(L4*1.16/(1.16-0.09)-0.3),"提醒"))))</f>
+      <c r="V4" s="534" t="str">
+        <f t="shared" ref="V4" si="7">IF(C4="","",IF(N4="N",L4*1.16/(1.16-0.09)-0.3,IF(N4=0,"错误",IF(I4&gt;N4,N4/I4*(L4*1.16/(1.16-0.13)-0.3)+(1-N4/I4)*(L4*1.16/(1.16-0.09)-0.3),"提醒"))))</f>
         <v/>
       </c>
-      <c r="W4" s="575" t="str">
-        <f t="shared" ref="W4" si="3">IF(C4="","",K4*V4)</f>
+      <c r="W4" s="534" t="str">
+        <f t="shared" ref="W4" si="8">IF(C4="","",K4*V4)</f>
         <v/>
       </c>
-      <c r="X4" s="575" t="str">
-        <f>IF($D4="","",SUMIF(C:C,$D4,W:W))</f>
+      <c r="X4" s="534" t="str">
+        <f t="shared" ref="X4:X14" si="9">IF($D4="","",SUMIF(C:C,$D4,W:W))</f>
         <v/>
       </c>
-      <c r="Y4" s="578" t="str">
+      <c r="Y4" s="537" t="str">
         <f>IF($D4="","",VLOOKUP(B4,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
-      <c r="Z4" s="575" t="str">
-        <f t="shared" ref="Z4" si="4">IF(D4="","",R4*(X4-U4-Y4)*AF4*AG4)</f>
+      <c r="Z4" s="534" t="str">
+        <f t="shared" ref="Z4" si="10">IF(D4="","",R4*(X4-U4-Y4)*AF4*AG4)</f>
         <v/>
       </c>
-      <c r="AA4" s="574"/>
-      <c r="AB4" s="575" t="str">
-        <f t="shared" ref="AB4" si="5">IF(D4="","",Z4*0.7+AA4)</f>
+      <c r="AA4" s="533"/>
+      <c r="AB4" s="534" t="str">
+        <f t="shared" ref="AB4" si="11">IF(D4="","",Z4*0.7+AA4)</f>
         <v/>
       </c>
-      <c r="AC4" s="571"/>
-      <c r="AD4" s="570"/>
-      <c r="AE4" s="579"/>
-      <c r="AF4" s="580"/>
-      <c r="AG4" s="581"/>
+      <c r="AC4" s="530"/>
+      <c r="AD4" s="529"/>
+      <c r="AE4" s="538"/>
+      <c r="AF4" s="539"/>
+      <c r="AG4" s="540"/>
     </row>
     <row r="5" spans="1:33">
-      <c r="C5" s="540" t="s">
+      <c r="C5" s="499" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="540" t="s">
+      <c r="D5" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="541" t="str">
-        <f>IF($D5="","",SUMIF(C:C,$D5,E:E))</f>
+      <c r="F5" s="500" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H5" s="490">
         <v>43209</v>
       </c>
-      <c r="I5" s="541">
+      <c r="I5" s="500">
         <v>5419.55</v>
       </c>
-      <c r="J5" s="541" t="str">
-        <f>IF($D5="","",SUMIF(C:C,$D5,I:I))</f>
+      <c r="J5" s="500" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K5" s="541">
-        <f>IF($C5="","",I5/SUMIF(D:D,$C5,J:J))</f>
+      <c r="K5" s="500">
+        <f t="shared" si="2"/>
         <v>9.9296530104279176E-2</v>
       </c>
-      <c r="L5" s="541">
+      <c r="L5" s="500">
         <f>IF($C5="","",VLOOKUP(H5,汇率!$B$3:F105,5,0))</f>
         <v>6.26</v>
       </c>
-      <c r="N5" s="540" t="s">
+      <c r="N5" s="499" t="s">
         <v>394</v>
       </c>
-      <c r="O5" s="541">
-        <f>IF($C5="","",K5*SUMIF(D:D,$C5,P:P))</f>
+      <c r="O5" s="500">
+        <f t="shared" si="3"/>
         <v>495.48968522035307</v>
       </c>
-      <c r="Q5" s="541">
-        <f>IF(C5="","",I5-O5)</f>
+      <c r="Q5" s="500">
+        <f t="shared" ref="Q5:Q14" si="12">IF(C5="","",I5-O5)</f>
         <v>4924.0603147796473</v>
       </c>
-      <c r="R5" s="541" t="str">
-        <f>IF($D5="","",SUMIF(C:C,$D5,Q:Q))</f>
+      <c r="R5" s="500" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U5" s="541" t="str">
-        <f>IF($D5="","",SUM(M5,S5,T5)/R5*1.005)</f>
+      <c r="U5" s="500" t="str">
+        <f t="shared" ref="U5:U14" si="13">IF($D5="","",SUM(M5,S5,T5)/R5*1.005)</f>
         <v/>
       </c>
-      <c r="V5" s="541">
-        <f>IF(C5="","",IF(N5="N",L5*1.16/(1.16-0.09)-0.3,IF(N5=0,"错误",IF(I5&gt;N5,N5/I5*(L5*1.16/(1.16-0.13)-0.3)+(1-N5/I5)*(L5*1.16/(1.16-0.09)-0.3),"提醒"))))</f>
+      <c r="V5" s="500">
+        <f t="shared" ref="V5:V14" si="14">IF(C5="","",IF(N5="N",L5*1.16/(1.16-0.09)-0.3,IF(N5=0,"错误",IF(I5&gt;N5,N5/I5*(L5*1.16/(1.16-0.13)-0.3)+(1-N5/I5)*(L5*1.16/(1.16-0.09)-0.3),"提醒"))))</f>
         <v>6.4865420560747671</v>
       </c>
-      <c r="W5" s="541">
-        <f>IF(C5="","",K5*V5)</f>
+      <c r="W5" s="500">
+        <f t="shared" ref="W5:W14" si="15">IF(C5="","",K5*V5)</f>
         <v>0.64409111854370105</v>
       </c>
-      <c r="X5" s="541" t="str">
-        <f>IF($D5="","",SUMIF(C:C,$D5,W:W))</f>
+      <c r="X5" s="500" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y5" s="541" t="str">
+      <c r="Y5" s="500" t="str">
         <f>IF($D5="","",VLOOKUP(B5,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
-      <c r="Z5" s="541" t="str">
-        <f>IF(D5="","",R5*(X5-U5-Y5)*AF5*AG5)</f>
+      <c r="Z5" s="500" t="str">
+        <f t="shared" ref="Z5:Z14" si="16">IF(D5="","",R5*(X5-U5-Y5)*AF5*AG5)</f>
         <v/>
       </c>
-      <c r="AB5" s="541" t="str">
-        <f>IF(D5="","",Z5*0.7+AA5)</f>
+      <c r="AB5" s="500" t="str">
+        <f t="shared" ref="AB5:AB14" si="17">IF(D5="","",Z5*0.7+AA5)</f>
         <v/>
       </c>
-      <c r="AD5" s="540" t="s">
+      <c r="AD5" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="AE5" s="540" t="s">
+      <c r="AE5" s="499" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:33">
-      <c r="C6" s="540" t="s">
+      <c r="C6" s="499" t="s">
         <v>349</v>
       </c>
-      <c r="D6" s="540" t="s">
+      <c r="D6" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="541" t="str">
-        <f>IF($D6="","",SUMIF(C:C,$D6,E:E))</f>
+      <c r="F6" s="500" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H6" s="490">
         <v>43237</v>
       </c>
-      <c r="I6" s="541">
+      <c r="I6" s="500">
         <v>13079.5</v>
       </c>
-      <c r="J6" s="541" t="str">
-        <f>IF($D6="","",SUMIF(C:C,$D6,I:I))</f>
+      <c r="J6" s="500" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K6" s="541">
-        <f>IF($C6="","",I6/SUMIF(D:D,$C6,J:J))</f>
+      <c r="K6" s="500">
+        <f t="shared" si="2"/>
         <v>0.23964147678292838</v>
       </c>
-      <c r="L6" s="541">
+      <c r="L6" s="500">
         <f>IF($C6="","",VLOOKUP(H6,汇率!$B$3:F106,5,0))</f>
         <v>6.35</v>
       </c>
-      <c r="N6" s="540" t="s">
+      <c r="N6" s="499" t="s">
         <v>394</v>
       </c>
-      <c r="O6" s="541">
-        <f>IF($C6="","",K6*SUMIF(D:D,$C6,P:P))</f>
+      <c r="O6" s="500">
+        <f t="shared" si="3"/>
         <v>1195.8109691468126</v>
       </c>
-      <c r="Q6" s="541">
-        <f>IF(C6="","",I6-O6)</f>
+      <c r="Q6" s="500">
+        <f t="shared" si="12"/>
         <v>11883.689030853187</v>
       </c>
-      <c r="R6" s="541" t="str">
-        <f>IF($D6="","",SUMIF(C:C,$D6,Q:Q))</f>
+      <c r="R6" s="500" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U6" s="541" t="str">
-        <f>IF($D6="","",SUM(M6,S6,T6)/R6*1.005)</f>
+      <c r="U6" s="500" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="V6" s="541">
-        <f>IF(C6="","",IF(N6="N",L6*1.16/(1.16-0.09)-0.3,IF(N6=0,"错误",IF(I6&gt;N6,N6/I6*(L6*1.16/(1.16-0.13)-0.3)+(1-N6/I6)*(L6*1.16/(1.16-0.09)-0.3),"提醒"))))</f>
+      <c r="V6" s="500">
+        <f t="shared" si="14"/>
         <v>6.58411214953271</v>
       </c>
-      <c r="W6" s="541">
-        <f>IF(C6="","",K6*V6)</f>
+      <c r="W6" s="500">
+        <f t="shared" si="15"/>
         <v>1.5778263588184396</v>
       </c>
-      <c r="X6" s="541" t="str">
-        <f>IF($D6="","",SUMIF(C:C,$D6,W:W))</f>
+      <c r="X6" s="500" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y6" s="541" t="str">
+      <c r="Y6" s="500" t="str">
         <f>IF($D6="","",VLOOKUP(B6,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
-      <c r="Z6" s="541" t="str">
-        <f>IF(D6="","",R6*(X6-U6-Y6)*AF6*AG6)</f>
+      <c r="Z6" s="500" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AB6" s="541" t="str">
-        <f>IF(D6="","",Z6*0.7+AA6)</f>
+      <c r="AB6" s="500" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AD6" s="540" t="s">
+      <c r="AD6" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="AE6" s="540" t="s">
+      <c r="AE6" s="499" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:33">
-      <c r="C7" s="540" t="s">
+      <c r="C7" s="499" t="s">
         <v>349</v>
       </c>
-      <c r="D7" s="540" t="s">
+      <c r="D7" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="541" t="str">
-        <f>IF($D7="","",SUMIF(C:C,$D7,E:E))</f>
+      <c r="F7" s="500" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H7" s="490">
         <v>43250</v>
       </c>
-      <c r="I7" s="541">
+      <c r="I7" s="500">
         <v>14336.82</v>
       </c>
-      <c r="J7" s="541" t="str">
-        <f>IF($D7="","",SUMIF(C:C,$D7,I:I))</f>
+      <c r="J7" s="500" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="541">
-        <f>IF($C7="","",I7/SUMIF(D:D,$C7,J:J))</f>
+      <c r="K7" s="500">
+        <f t="shared" si="2"/>
         <v>0.26267798594525965</v>
       </c>
-      <c r="L7" s="541">
+      <c r="L7" s="500">
         <f>IF($C7="","",VLOOKUP(H7,汇率!$B$3:F107,5,0))</f>
         <v>6.41</v>
       </c>
-      <c r="N7" s="540" t="s">
+      <c r="N7" s="499" t="s">
         <v>394</v>
       </c>
-      <c r="O7" s="541">
-        <f>IF($C7="","",K7*SUMIF(D:D,$C7,P:P))</f>
+      <c r="O7" s="500">
+        <f t="shared" si="3"/>
         <v>1310.7631498668457</v>
       </c>
-      <c r="Q7" s="541">
-        <f>IF(C7="","",I7-O7)</f>
+      <c r="Q7" s="500">
+        <f t="shared" si="12"/>
         <v>13026.056850133155</v>
       </c>
-      <c r="R7" s="541" t="str">
-        <f>IF($D7="","",SUMIF(C:C,$D7,Q:Q))</f>
+      <c r="R7" s="500" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U7" s="541" t="str">
-        <f>IF($D7="","",SUM(M7,S7,T7)/R7*1.005)</f>
+      <c r="U7" s="500" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="V7" s="541">
-        <f>IF(C7="","",IF(N7="N",L7*1.16/(1.16-0.09)-0.3,IF(N7=0,"错误",IF(I7&gt;N7,N7/I7*(L7*1.16/(1.16-0.13)-0.3)+(1-N7/I7)*(L7*1.16/(1.16-0.09)-0.3),"提醒"))))</f>
+      <c r="V7" s="500">
+        <f t="shared" si="14"/>
         <v>6.6491588785046742</v>
       </c>
-      <c r="W7" s="541">
-        <f>IF(C7="","",K7*V7)</f>
+      <c r="W7" s="500">
+        <f t="shared" si="15"/>
         <v>1.7465876624356493</v>
       </c>
-      <c r="X7" s="541" t="str">
-        <f>IF($D7="","",SUMIF(C:C,$D7,W:W))</f>
+      <c r="X7" s="500" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y7" s="541" t="str">
+      <c r="Y7" s="500" t="str">
         <f>IF($D7="","",VLOOKUP(B7,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
-      <c r="Z7" s="541" t="str">
-        <f>IF(D7="","",R7*(X7-U7-Y7)*AF7*AG7)</f>
+      <c r="Z7" s="500" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AB7" s="541" t="str">
-        <f>IF(D7="","",Z7*0.7+AA7)</f>
+      <c r="AB7" s="500" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AD7" s="540" t="s">
+      <c r="AD7" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="AE7" s="540" t="s">
+      <c r="AE7" s="499" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:33">
-      <c r="C8" s="540" t="s">
+      <c r="C8" s="499" t="s">
         <v>349</v>
       </c>
-      <c r="D8" s="540" t="s">
+      <c r="D8" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="F8" s="541" t="str">
-        <f>IF($D8="","",SUMIF(C:C,$D8,E:E))</f>
+      <c r="F8" s="500" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H8" s="490">
         <v>43272</v>
       </c>
-      <c r="I8" s="541">
+      <c r="I8" s="500">
         <v>10456.6</v>
       </c>
-      <c r="J8" s="541" t="str">
-        <f>IF($D8="","",SUMIF(C:C,$D8,I:I))</f>
+      <c r="J8" s="500" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K8" s="541">
-        <f>IF($C8="","",I8/SUMIF(D:D,$C8,J:J))</f>
+      <c r="K8" s="500">
+        <f t="shared" si="2"/>
         <v>0.19158492802694055</v>
       </c>
-      <c r="L8" s="541">
+      <c r="L8" s="500">
         <f>IF($C8="","",VLOOKUP(H8,汇率!$B$3:F108,5,0))</f>
         <v>6.48</v>
       </c>
-      <c r="N8" s="540" t="s">
+      <c r="N8" s="499" t="s">
         <v>394</v>
       </c>
-      <c r="O8" s="541">
-        <f>IF($C8="","",K8*SUMIF(D:D,$C8,P:P))</f>
+      <c r="O8" s="500">
+        <f t="shared" si="3"/>
         <v>956.0087908544333</v>
       </c>
-      <c r="Q8" s="541">
-        <f>IF(C8="","",I8-O8)</f>
+      <c r="Q8" s="500">
+        <f t="shared" si="12"/>
         <v>9500.5912091455666</v>
       </c>
-      <c r="R8" s="541" t="str">
-        <f>IF($D8="","",SUMIF(C:C,$D8,Q:Q))</f>
+      <c r="R8" s="500" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U8" s="541" t="str">
-        <f>IF($D8="","",SUM(M8,S8,T8)/R8*1.005)</f>
+      <c r="U8" s="500" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="V8" s="541">
-        <f>IF(C8="","",IF(N8="N",L8*1.16/(1.16-0.09)-0.3,IF(N8=0,"错误",IF(I8&gt;N8,N8/I8*(L8*1.16/(1.16-0.13)-0.3)+(1-N8/I8)*(L8*1.16/(1.16-0.09)-0.3),"提醒"))))</f>
+      <c r="V8" s="500">
+        <f t="shared" si="14"/>
         <v>6.7250467289719635</v>
       </c>
-      <c r="W8" s="541">
-        <f>IF(C8="","",K8*V8)</f>
+      <c r="W8" s="500">
+        <f t="shared" si="15"/>
         <v>1.2884175935479056</v>
       </c>
-      <c r="X8" s="541" t="str">
-        <f>IF($D8="","",SUMIF(C:C,$D8,W:W))</f>
+      <c r="X8" s="500" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y8" s="541" t="str">
+      <c r="Y8" s="500" t="str">
         <f>IF($D8="","",VLOOKUP(B8,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
-      <c r="Z8" s="541" t="str">
-        <f>IF(D8="","",R8*(X8-U8-Y8)*AF8*AG8)</f>
+      <c r="Z8" s="500" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AB8" s="541" t="str">
-        <f>IF(D8="","",Z8*0.7+AA8)</f>
+      <c r="AB8" s="500" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AD8" s="540" t="s">
+      <c r="AD8" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="AE8" s="540" t="s">
+      <c r="AE8" s="499" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:33">
-      <c r="C9" s="540" t="s">
+      <c r="C9" s="499" t="s">
         <v>349</v>
       </c>
-      <c r="D9" s="540" t="s">
+      <c r="D9" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="541">
+      <c r="E9" s="500">
         <v>54651.45</v>
       </c>
-      <c r="F9" s="541" t="str">
-        <f>IF($D9="","",SUMIF(C:C,$D9,E:E))</f>
+      <c r="F9" s="500" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H9" s="490">
         <v>43279</v>
       </c>
-      <c r="I9" s="541">
+      <c r="I9" s="500">
         <v>11286.98</v>
       </c>
-      <c r="J9" s="541" t="str">
-        <f>IF($D9="","",SUMIF(C:C,$D9,I:I))</f>
+      <c r="J9" s="500" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K9" s="541">
-        <f>IF($C9="","",I9/SUMIF(D:D,$C9,J:J))</f>
+      <c r="K9" s="500">
+        <f t="shared" si="2"/>
         <v>0.20679907914059228</v>
       </c>
-      <c r="L9" s="541">
+      <c r="L9" s="500">
         <f>IF($C9="","",VLOOKUP(H9,汇率!$B$3:F109,5,0))</f>
         <v>6.61</v>
       </c>
-      <c r="N9" s="540" t="s">
+      <c r="N9" s="499" t="s">
         <v>394</v>
       </c>
-      <c r="O9" s="541">
-        <f>IF($C9="","",K9*SUMIF(D:D,$C9,P:P))</f>
+      <c r="O9" s="500">
+        <f t="shared" si="3"/>
         <v>1031.9274049115554</v>
       </c>
-      <c r="Q9" s="541">
-        <f>IF(C9="","",I9-O9)</f>
+      <c r="Q9" s="500">
+        <f t="shared" si="12"/>
         <v>10255.052595088444</v>
       </c>
-      <c r="R9" s="541" t="str">
-        <f>IF($D9="","",SUMIF(C:C,$D9,Q:Q))</f>
+      <c r="R9" s="500" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U9" s="541" t="str">
-        <f>IF($D9="","",SUM(M9,S9,T9)/R9*1.005)</f>
+      <c r="U9" s="500" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="V9" s="541">
-        <f>IF(C9="","",IF(N9="N",L9*1.16/(1.16-0.09)-0.3,IF(N9=0,"错误",IF(I9&gt;N9,N9/I9*(L9*1.16/(1.16-0.13)-0.3)+(1-N9/I9)*(L9*1.16/(1.16-0.09)-0.3),"提醒"))))</f>
+      <c r="V9" s="500">
+        <f t="shared" si="14"/>
         <v>6.8659813084112162</v>
       </c>
-      <c r="W9" s="541">
-        <f>IF(C9="","",K9*V9)</f>
+      <c r="W9" s="500">
+        <f t="shared" si="15"/>
         <v>1.4198786119759585</v>
       </c>
-      <c r="X9" s="541" t="str">
-        <f>IF($D9="","",SUMIF(C:C,$D9,W:W))</f>
+      <c r="X9" s="500" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y9" s="541" t="str">
+      <c r="Y9" s="500" t="str">
         <f>IF($D9="","",VLOOKUP(B9,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
-      <c r="Z9" s="541" t="str">
-        <f>IF(D9="","",R9*(X9-U9-Y9)*AF9*AG9)</f>
+      <c r="Z9" s="500" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AB9" s="541" t="str">
-        <f>IF(D9="","",Z9*0.7+AA9)</f>
+      <c r="AB9" s="500" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AD9" s="540" t="s">
+      <c r="AD9" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="AE9" s="540" t="s">
+      <c r="AE9" s="499" t="s">
         <v>203</v>
       </c>
     </row>
@@ -11889,254 +11911,254 @@
       <c r="B10" s="490">
         <v>43191</v>
       </c>
-      <c r="C10" s="540" t="s">
+      <c r="C10" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="D10" s="540" t="s">
+      <c r="D10" s="499" t="s">
         <v>349</v>
       </c>
-      <c r="F10" s="541">
-        <f>IF($D10="","",SUMIF(C:C,$D10,E:E))</f>
+      <c r="F10" s="500">
+        <f t="shared" si="0"/>
         <v>54651.45</v>
       </c>
-      <c r="J10" s="541">
-        <f>IF($D10="","",SUMIF(C:C,$D10,I:I))</f>
+      <c r="J10" s="500">
+        <f t="shared" si="1"/>
         <v>54579.45</v>
       </c>
-      <c r="K10" s="541" t="str">
-        <f>IF($C10="","",I10/SUMIF(D:D,$C10,J:J))</f>
+      <c r="K10" s="500" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L10" s="541" t="str">
+      <c r="L10" s="500" t="str">
         <f>IF($C10="","",VLOOKUP(H10,汇率!$B$3:F110,5,0))</f>
         <v/>
       </c>
-      <c r="M10" s="541">
+      <c r="M10" s="500">
         <v>262942.3</v>
       </c>
-      <c r="N10" s="540" t="s">
+      <c r="N10" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="O10" s="541" t="str">
-        <f>IF($C10="","",K10*SUMIF(D:D,$C10,P:P))</f>
+      <c r="O10" s="500" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P10" s="541">
+      <c r="P10" s="500">
         <v>4990</v>
       </c>
-      <c r="Q10" s="541" t="str">
-        <f>IF(C10="","",I10-O10)</f>
+      <c r="Q10" s="500" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="R10" s="541">
-        <f>IF($D10="","",SUMIF(C:C,$D10,Q:Q))</f>
+      <c r="R10" s="500">
+        <f t="shared" si="5"/>
         <v>49589.45</v>
       </c>
-      <c r="S10" s="541">
+      <c r="S10" s="500">
         <v>10530</v>
       </c>
-      <c r="U10" s="541">
-        <f>IF($D10="","",SUM(M10,S10,T10)/R10*1.005)</f>
+      <c r="U10" s="500">
+        <f t="shared" si="13"/>
         <v>5.5423010640368053</v>
       </c>
-      <c r="V10" s="541" t="str">
-        <f>IF(C10="","",IF(N10="N",L10*1.16/(1.16-0.09)-0.3,IF(N10=0,"错误",IF(I10&gt;N10,N10/I10*(L10*1.16/(1.16-0.13)-0.3)+(1-N10/I10)*(L10*1.16/(1.16-0.09)-0.3),"提醒"))))</f>
+      <c r="V10" s="500" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W10" s="541" t="str">
-        <f>IF(C10="","",K10*V10)</f>
+      <c r="W10" s="500" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="X10" s="541">
-        <f>IF($D10="","",SUMIF(C:C,$D10,W:W))</f>
+      <c r="X10" s="500">
+        <f t="shared" si="9"/>
         <v>6.6768013453216541</v>
       </c>
-      <c r="Y10" s="541">
+      <c r="Y10" s="500">
         <f>IF($D10="","",VLOOKUP(B10,下单月成本!$A$2:$B$13,2,0))</f>
         <v>0.77600000000000002</v>
       </c>
-      <c r="Z10" s="541">
-        <f>IF(D10="","",R10*(X10-U10-Y10)*AF10*AG10)</f>
+      <c r="Z10" s="500">
+        <f t="shared" si="16"/>
         <v>444.44579434402362</v>
       </c>
-      <c r="AA10" s="541">
+      <c r="AA10" s="500">
         <v>2287.42</v>
       </c>
-      <c r="AB10" s="541">
-        <f>IF(D10="","",Z10*0.7+AA10)</f>
+      <c r="AB10" s="500">
+        <f t="shared" si="17"/>
         <v>2598.5320560408168</v>
       </c>
-      <c r="AD10" s="540" t="s">
+      <c r="AD10" s="499" t="s">
         <v>18</v>
       </c>
-      <c r="AE10" s="540" t="s">
+      <c r="AE10" s="499" t="s">
         <v>318</v>
       </c>
-      <c r="AF10" s="583">
+      <c r="AF10" s="542">
         <v>0.1</v>
       </c>
-      <c r="AG10" s="583">
+      <c r="AG10" s="542">
         <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:33">
-      <c r="C11" s="540" t="s">
+      <c r="C11" s="499" t="s">
         <v>350</v>
       </c>
-      <c r="D11" s="540" t="s">
+      <c r="D11" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="F11" s="541" t="str">
-        <f>IF($D11="","",SUMIF(C:C,$D11,E:E))</f>
+      <c r="F11" s="500" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H11" s="490">
         <v>43218</v>
       </c>
-      <c r="I11" s="541">
+      <c r="I11" s="500">
         <v>21055</v>
       </c>
-      <c r="J11" s="541" t="str">
-        <f>IF($D11="","",SUMIF(C:C,$D11,I:I))</f>
+      <c r="J11" s="500" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K11" s="541">
-        <f>IF($C11="","",I11/SUMIF(D:D,$C11,J:J))</f>
+      <c r="K11" s="500">
+        <f t="shared" si="2"/>
         <v>0.50238606537819142</v>
       </c>
-      <c r="L11" s="541">
+      <c r="L11" s="500">
         <f>IF($C11="","",VLOOKUP(H11,汇率!$B$3:F111,5,0))</f>
         <v>6.32</v>
       </c>
-      <c r="N11" s="540" t="s">
+      <c r="N11" s="499" t="s">
         <v>394</v>
       </c>
-      <c r="O11" s="541">
-        <f>IF($C11="","",K11*SUMIF(D:D,$C11,P:P))</f>
+      <c r="O11" s="500">
+        <f t="shared" si="3"/>
         <v>2431.0461703650681</v>
       </c>
-      <c r="Q11" s="541">
-        <f>IF(C11="","",I11-O11)</f>
+      <c r="Q11" s="500">
+        <f t="shared" si="12"/>
         <v>18623.953829634931</v>
       </c>
-      <c r="R11" s="541" t="str">
-        <f>IF($D11="","",SUMIF(C:C,$D11,Q:Q))</f>
+      <c r="R11" s="500" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U11" s="541" t="str">
-        <f>IF($D11="","",SUM(M11,S11,T11)/R11*1.005)</f>
+      <c r="U11" s="500" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="V11" s="541">
-        <f>IF(C11="","",IF(N11="N",L11*1.16/(1.16-0.09)-0.3,IF(N11=0,"错误",IF(I11&gt;N11,N11/I11*(L11*1.16/(1.16-0.13)-0.3)+(1-N11/I11)*(L11*1.16/(1.16-0.09)-0.3),"提醒"))))</f>
+      <c r="V11" s="500">
+        <f t="shared" si="14"/>
         <v>6.5515887850467305</v>
       </c>
-      <c r="W11" s="541">
-        <f>IF(C11="","",K11*V11)</f>
+      <c r="W11" s="500">
+        <f t="shared" si="15"/>
         <v>3.2914269116955124</v>
       </c>
-      <c r="X11" s="541" t="str">
-        <f>IF($D11="","",SUMIF(C:C,$D11,W:W))</f>
+      <c r="X11" s="500" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y11" s="541" t="str">
+      <c r="Y11" s="500" t="str">
         <f>IF($D11="","",VLOOKUP(B11,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
-      <c r="Z11" s="541" t="str">
-        <f>IF(D11="","",R11*(X11-U11-Y11)*AF11*AG11)</f>
+      <c r="Z11" s="500" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AB11" s="541" t="str">
-        <f>IF(D11="","",Z11*0.7+AA11)</f>
+      <c r="AB11" s="500" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AD11" s="540" t="s">
+      <c r="AD11" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="AE11" s="540" t="s">
+      <c r="AE11" s="499" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:33">
-      <c r="C12" s="540" t="s">
+      <c r="C12" s="499" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="540" t="s">
+      <c r="D12" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="541">
+      <c r="E12" s="500">
         <v>41930</v>
       </c>
-      <c r="F12" s="541" t="str">
-        <f>IF($D12="","",SUMIF(C:C,$D12,E:E))</f>
+      <c r="F12" s="500" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H12" s="490">
         <v>43273</v>
       </c>
-      <c r="I12" s="541">
+      <c r="I12" s="500">
         <v>20855</v>
       </c>
-      <c r="J12" s="541" t="str">
-        <f>IF($D12="","",SUMIF(C:C,$D12,I:I))</f>
+      <c r="J12" s="500" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K12" s="541">
-        <f>IF($C12="","",I12/SUMIF(D:D,$C12,J:J))</f>
+      <c r="K12" s="500">
+        <f t="shared" si="2"/>
         <v>0.49761393462180864</v>
       </c>
-      <c r="L12" s="541">
+      <c r="L12" s="500">
         <f>IF($C12="","",VLOOKUP(H12,汇率!$B$3:F112,5,0))</f>
         <v>6.48</v>
       </c>
-      <c r="N12" s="540" t="s">
+      <c r="N12" s="499" t="s">
         <v>394</v>
       </c>
-      <c r="O12" s="541">
-        <f>IF($C12="","",K12*SUMIF(D:D,$C12,P:P))</f>
+      <c r="O12" s="500">
+        <f t="shared" si="3"/>
         <v>2407.9538296349319</v>
       </c>
-      <c r="Q12" s="541">
-        <f>IF(C12="","",I12-O12)</f>
+      <c r="Q12" s="500">
+        <f t="shared" si="12"/>
         <v>18447.046170365069</v>
       </c>
-      <c r="R12" s="541" t="str">
-        <f>IF($D12="","",SUMIF(C:C,$D12,Q:Q))</f>
+      <c r="R12" s="500" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U12" s="541" t="str">
-        <f>IF($D12="","",SUM(M12,S12,T12)/R12*1.005)</f>
+      <c r="U12" s="500" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="V12" s="541">
-        <f>IF(C12="","",IF(N12="N",L12*1.16/(1.16-0.09)-0.3,IF(N12=0,"错误",IF(I12&gt;N12,N12/I12*(L12*1.16/(1.16-0.13)-0.3)+(1-N12/I12)*(L12*1.16/(1.16-0.09)-0.3),"提醒"))))</f>
+      <c r="V12" s="500">
+        <f t="shared" si="14"/>
         <v>6.7250467289719635</v>
       </c>
-      <c r="W12" s="541">
-        <f>IF(C12="","",K12*V12)</f>
+      <c r="W12" s="500">
+        <f t="shared" si="15"/>
         <v>3.3464769633192626</v>
       </c>
-      <c r="X12" s="541" t="str">
-        <f>IF($D12="","",SUMIF(C:C,$D12,W:W))</f>
+      <c r="X12" s="500" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y12" s="541" t="str">
+      <c r="Y12" s="500" t="str">
         <f>IF($D12="","",VLOOKUP(B12,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
-      <c r="Z12" s="541" t="str">
-        <f>IF(D12="","",R12*(X12-U12-Y12)*AF12*AG12)</f>
+      <c r="Z12" s="500" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AB12" s="541" t="str">
-        <f>IF(D12="","",Z12*0.7+AA12)</f>
+      <c r="AB12" s="500" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AD12" s="540" t="s">
+      <c r="AD12" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="AE12" s="540" t="s">
+      <c r="AE12" s="499" t="s">
         <v>203</v>
       </c>
     </row>
@@ -12147,171 +12169,171 @@
       <c r="B13" s="490">
         <v>43191</v>
       </c>
-      <c r="C13" s="540" t="s">
+      <c r="C13" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="D13" s="540" t="s">
+      <c r="D13" s="499" t="s">
         <v>350</v>
       </c>
-      <c r="F13" s="541">
-        <f>IF($D13="","",SUMIF(C:C,$D13,E:E))</f>
+      <c r="F13" s="500">
+        <f t="shared" si="0"/>
         <v>41930</v>
       </c>
-      <c r="J13" s="541">
-        <f>IF($D13="","",SUMIF(C:C,$D13,I:I))</f>
+      <c r="J13" s="500">
+        <f t="shared" si="1"/>
         <v>41910</v>
       </c>
-      <c r="K13" s="541" t="str">
-        <f>IF($C13="","",I13/SUMIF(D:D,$C13,J:J))</f>
+      <c r="K13" s="500" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L13" s="541" t="str">
+      <c r="L13" s="500" t="str">
         <f>IF($C13="","",VLOOKUP(H13,汇率!$B$3:F113,5,0))</f>
         <v/>
       </c>
-      <c r="M13" s="541">
+      <c r="M13" s="500">
         <v>195317.95</v>
       </c>
-      <c r="N13" s="540" t="s">
+      <c r="N13" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="O13" s="541" t="str">
-        <f>IF($C13="","",K13*SUMIF(D:D,$C13,P:P))</f>
+      <c r="O13" s="500" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P13" s="541">
+      <c r="P13" s="500">
         <v>4839</v>
       </c>
-      <c r="Q13" s="541" t="str">
-        <f>IF(C13="","",I13-O13)</f>
+      <c r="Q13" s="500" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="R13" s="541">
-        <f>IF($D13="","",SUMIF(C:C,$D13,Q:Q))</f>
+      <c r="R13" s="500">
+        <f t="shared" si="5"/>
         <v>37071</v>
       </c>
-      <c r="S13" s="541">
+      <c r="S13" s="500">
         <v>5730</v>
       </c>
-      <c r="U13" s="541">
-        <f>IF($D13="","",SUM(M13,S13,T13)/R13*1.005)</f>
+      <c r="U13" s="500">
+        <f t="shared" si="13"/>
         <v>5.4504380715383993</v>
       </c>
-      <c r="V13" s="541" t="str">
-        <f>IF(C13="","",IF(N13="N",L13*1.16/(1.16-0.09)-0.3,IF(N13=0,"错误",IF(I13&gt;N13,N13/I13*(L13*1.16/(1.16-0.13)-0.3)+(1-N13/I13)*(L13*1.16/(1.16-0.09)-0.3),"提醒"))))</f>
+      <c r="V13" s="500" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W13" s="541" t="str">
-        <f>IF(C13="","",K13*V13)</f>
+      <c r="W13" s="500" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="X13" s="541">
-        <f>IF($D13="","",SUMIF(C:C,$D13,W:W))</f>
+      <c r="X13" s="500">
+        <f t="shared" si="9"/>
         <v>6.637903875014775</v>
       </c>
-      <c r="Y13" s="541">
+      <c r="Y13" s="500">
         <f>IF($D13="","",VLOOKUP(B13,下单月成本!$A$2:$B$13,2,0))</f>
         <v>0.77600000000000002</v>
       </c>
-      <c r="Z13" s="541">
-        <f>IF(D13="","",R13*(X13-U13-Y13)*AF13*AG13)</f>
+      <c r="Z13" s="500">
+        <f t="shared" si="16"/>
         <v>3813.3622001681802</v>
       </c>
-      <c r="AA13" s="541">
+      <c r="AA13" s="500">
         <v>-2000</v>
       </c>
-      <c r="AB13" s="584">
-        <f>IF(D13="","",Z13*0.7+AA13)</f>
+      <c r="AB13" s="543">
+        <f t="shared" si="17"/>
         <v>669.35354011772597</v>
       </c>
-      <c r="AD13" s="540" t="s">
+      <c r="AD13" s="499" t="s">
         <v>18</v>
       </c>
-      <c r="AE13" s="540" t="s">
+      <c r="AE13" s="499" t="s">
         <v>330</v>
       </c>
-      <c r="AF13" s="583">
+      <c r="AF13" s="542">
         <v>1</v>
       </c>
-      <c r="AG13" s="583">
+      <c r="AG13" s="542">
         <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:33">
-      <c r="C14" s="540" t="s">
+      <c r="C14" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="D14" s="540" t="s">
+      <c r="D14" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="F14" s="541" t="str">
-        <f>IF($D14="","",SUMIF(C:C,$D14,E:E))</f>
+      <c r="F14" s="500" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="541" t="str">
-        <f>IF($D14="","",SUMIF(C:C,$D14,I:I))</f>
+      <c r="J14" s="500" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K14" s="541" t="str">
-        <f>IF($C14="","",I14/SUMIF(D:D,$C14,J:J))</f>
+      <c r="K14" s="500" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L14" s="541" t="str">
+      <c r="L14" s="500" t="str">
         <f>IF($C14="","",VLOOKUP(H14,汇率!$B$3:F114,5,0))</f>
         <v/>
       </c>
-      <c r="N14" s="540" t="s">
+      <c r="N14" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="O14" s="541" t="str">
-        <f>IF($C14="","",K14*SUMIF(D:D,$C14,P:P))</f>
+      <c r="O14" s="500" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q14" s="541" t="str">
-        <f>IF(C14="","",I14-O14)</f>
+      <c r="Q14" s="500" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="R14" s="541" t="str">
-        <f>IF($D14="","",SUMIF(C:C,$D14,Q:Q))</f>
+      <c r="R14" s="500" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U14" s="541" t="str">
-        <f>IF($D14="","",SUM(M14,S14,T14)/R14*1.005)</f>
+      <c r="U14" s="500" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="V14" s="541" t="str">
-        <f>IF(C14="","",IF(N14="N",L14*1.16/(1.16-0.09)-0.3,IF(N14=0,"错误",IF(I14&gt;N14,N14/I14*(L14*1.16/(1.16-0.13)-0.3)+(1-N14/I14)*(L14*1.16/(1.16-0.09)-0.3),"提醒"))))</f>
+      <c r="V14" s="500" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W14" s="541" t="str">
-        <f>IF(C14="","",K14*V14)</f>
+      <c r="W14" s="500" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="X14" s="541" t="str">
-        <f>IF($D14="","",SUMIF(C:C,$D14,W:W))</f>
+      <c r="X14" s="500" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y14" s="541" t="str">
+      <c r="Y14" s="500" t="str">
         <f>IF($D14="","",VLOOKUP(B14,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
-      <c r="Z14" s="541" t="str">
-        <f>IF(D14="","",R14*(X14-U14-Y14)*AF14*AG14)</f>
+      <c r="Z14" s="500" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AB14" s="541" t="str">
-        <f>IF(D14="","",Z14*0.7+AA14)</f>
+      <c r="AB14" s="500" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AD14" s="540" t="s">
+      <c r="AD14" s="499" t="s">
         <v>203</v>
       </c>
-      <c r="AE14" s="540" t="s">
+      <c r="AE14" s="499" t="s">
         <v>203</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="b6ppTnV8NKXMkDUyMuJaavvaKrI3aHoq8MrvZxfMLXEACl9k5HC3hdLF4Qm2xj2GY0vJipb1i7BwI3rPPCQ6eg==" saltValue="Vbnx/mNUKMbCxXynYgLusg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hQviD2rrpImsP3XUHdGdMLPExEekuTHQPgJl6+nzWDE+g6oUK+fsRPWBWp6N/LHC6k9vpdnOMnNCJkKAIrH+Sw==" saltValue="nZk/xBJKVbu18E6TTqsy4g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="A4:AG4">
     <cfRule type="expression" dxfId="0" priority="34">
       <formula>_xlfn.ISFORMULA(A4)</formula>
@@ -12328,7 +12350,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12504,7 +12526,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cr//2mGuvQSpYcomMZjrfKshEQ0r7PpRdz/vpIOwyZlHeR6+UVElGpwanCXYSSnyTl29TMlIpnnoZgQUUlgjcw==" saltValue="wqdjPbKCwgAOKWEIQDIU7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zt9AJVB826RW+0AYPyKh6m0+G/8XVlnLLx+Rf/2vXIzuSUGZ1mYYrb3FDUCOwRG5B8nTCsf3l8E1nO42LIwRBA==" saltValue="w7OkY3Vsy/1TtaScpgZeyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -12515,8 +12537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975010A2-99C9-49C6-8D57-E82F2BE403C0}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12524,30 +12546,30 @@
     <col min="1" max="1" width="16" style="490" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="490" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="496" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="603" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="562" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="496"/>
     <col min="6" max="6" width="9.140625" style="493"/>
-    <col min="7" max="7" width="10.140625" style="604" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="603"/>
-    <col min="9" max="9" width="30.28515625" style="603" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="540"/>
-    <col min="11" max="11" width="36.140625" style="540" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="583" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="583"/>
+    <col min="7" max="7" width="10.140625" style="563" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="562"/>
+    <col min="9" max="9" width="30.28515625" style="562" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="499"/>
+    <col min="11" max="11" width="36.140625" style="499" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="542" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="542"/>
     <col min="14" max="16384" width="9.140625" style="496"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5">
-      <c r="A1" s="585" t="s">
+      <c r="A1" s="544" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="586" t="s">
+      <c r="B1" s="545" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="482" t="s">
         <v>358</v>
       </c>
-      <c r="D1" s="587" t="s">
+      <c r="D1" s="546" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="485" t="s">
@@ -12556,110 +12578,107 @@
       <c r="F1" s="491" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="588" t="s">
+      <c r="G1" s="547" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="589" t="s">
+      <c r="H1" s="548" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="590" t="s">
+      <c r="I1" s="549" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="590" t="s">
+      <c r="J1" s="549" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="591" t="s">
+      <c r="K1" s="550" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="592" t="s">
+      <c r="L1" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="593" t="s">
+      <c r="M1" s="552" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="602" customFormat="1">
-      <c r="A2" s="538">
+    <row r="2" spans="1:14" s="561" customFormat="1">
+      <c r="A2" s="497">
         <v>43252</v>
       </c>
-      <c r="B2" s="538">
+      <c r="B2" s="497">
         <v>43191</v>
       </c>
-      <c r="C2" s="539" t="s">
+      <c r="C2" s="498" t="s">
         <v>349</v>
       </c>
-      <c r="D2" s="594">
+      <c r="D2" s="553">
         <v>262942.3</v>
       </c>
       <c r="E2" s="403"/>
-      <c r="F2" s="595">
+      <c r="F2" s="554">
         <v>4990</v>
       </c>
-      <c r="G2" s="596">
+      <c r="G2" s="555">
         <v>10530</v>
       </c>
-      <c r="H2" s="597"/>
-      <c r="I2" s="598">
+      <c r="H2" s="556"/>
+      <c r="I2" s="557">
         <v>2287.42</v>
       </c>
-      <c r="J2" s="599" t="s">
+      <c r="J2" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="600" t="s">
+      <c r="K2" s="559" t="s">
         <v>318</v>
       </c>
-      <c r="L2" s="601">
+      <c r="L2" s="560">
         <v>0.1</v>
       </c>
-      <c r="M2" s="601">
+      <c r="M2" s="560">
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="602" customFormat="1">
-      <c r="A3" s="538">
+    <row r="3" spans="1:14" s="561" customFormat="1">
+      <c r="A3" s="497">
         <v>43252</v>
       </c>
-      <c r="B3" s="538">
+      <c r="B3" s="497">
         <v>43191</v>
       </c>
-      <c r="C3" s="539" t="s">
+      <c r="C3" s="498" t="s">
         <v>350</v>
       </c>
-      <c r="D3" s="594">
+      <c r="D3" s="553">
         <v>195317.95</v>
       </c>
       <c r="E3" s="403"/>
-      <c r="F3" s="595">
+      <c r="F3" s="554">
         <v>4839</v>
       </c>
-      <c r="G3" s="596">
+      <c r="G3" s="555">
         <v>5730</v>
       </c>
-      <c r="H3" s="598"/>
-      <c r="I3" s="598">
+      <c r="H3" s="557"/>
+      <c r="I3" s="557">
         <v>-2000</v>
       </c>
-      <c r="J3" s="599" t="s">
+      <c r="J3" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="600" t="s">
+      <c r="K3" s="559" t="s">
         <v>330</v>
       </c>
-      <c r="L3" s="601">
+      <c r="L3" s="560">
         <v>1</v>
       </c>
-      <c r="M3" s="601">
+      <c r="M3" s="560">
         <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="N6" s="540"/>
+      <c r="N6" s="499"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5XeTtHACR7wQAzGojiT7hIVgx7TPS1todJdatLXD6GkW/TcBl1tncvnDC7vI2sV7h8Uz+MTRRN1kAG+qEl4Ryw==" saltValue="Y+KpXKZHXUUNuDIOOKd4Pw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <protectedRanges>
-    <protectedRange sqref="J1:J1048576" name="Range1"/>
-  </protectedRanges>
+  <sheetProtection algorithmName="SHA-512" hashValue="Lzb7Q8+0mrX8ygdAmgEKebhZAZlNQi9ZdtlnI/jxwxrDLCq3QWhkwureT27+8ZTmhvA3W+lU3e3qWpuImiP3OA==" saltValue="p1DE4hR8P7nUGNmkVopXwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -12687,12 +12706,12 @@
     <row r="1" spans="1:6">
       <c r="A1" s="227"/>
       <c r="B1" s="227"/>
-      <c r="C1" s="533" t="s">
+      <c r="C1" s="600" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="533"/>
+      <c r="D1" s="600"/>
+      <c r="E1" s="600"/>
+      <c r="F1" s="600"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="227"/>
@@ -13902,13 +13921,13 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CNW9nRUM4t4LyB1W1eVezBAkyJxNvDOyuzaBmoMCfOSqOpxh7JGjOhxwssRE9TXufV++H0Zg+bGviQPQIknerA==" saltValue="Tq2ET1cGy07kFsq7RE8zhg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6PXHKQtrGoEJx92Q9M+aS7eDz+u38UcVakhHcSC0Ib879a5t+xi9gsVjJuuutb58Wv+anPeNquJm5YLJ0Xk9Qg==" saltValue="J6o/iCnIxJhS8STbvo8JqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:F41" xr:uid="{00000000-0009-0000-0000-000007000000}">
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F43">
+  <sortState ref="A3:F43">
     <sortCondition ref="B3:B43"/>
   </sortState>
   <mergeCells count="1">
@@ -13954,14 +13973,14 @@
       <c r="C1" s="388" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="534" t="s">
+      <c r="D1" s="601" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
+      <c r="E1" s="602"/>
+      <c r="F1" s="602"/>
+      <c r="G1" s="602"/>
+      <c r="H1" s="602"/>
+      <c r="I1" s="602"/>
       <c r="J1" s="394" t="s">
         <v>295</v>
       </c>
@@ -14210,7 +14229,7 @@
       <c r="L20" s="449"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Qo20S9C8jTiktEBabCTqVH6+TImi/sML44IUtDojGquBBzEj1JEgWZevAkgSWXwHGD4s9omLePt6apZBjpUjGA==" saltValue="6F3VavFienwqZHOOIQlg7A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="baG67jr3mLEx3md0hVupz61XDrGSztrOqL8nKsPGp7Fw1CQPiDQOKvlwiwqvA0xzcHzyCL3ZsJq5OBqGFN1+uA==" saltValue="c15BNmaZXM+xSTS5z4IzBA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="D1:I1"/>
   </mergeCells>
@@ -14349,11 +14368,11 @@
       <c r="G5" s="263"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="536">
+      <c r="B6" s="603">
         <f>SUM(B5:C5)</f>
         <v>415468.45999999996</v>
       </c>
-      <c r="C6" s="537"/>
+      <c r="C6" s="604"/>
       <c r="D6" s="267">
         <f>SUM(D2:D5)</f>
         <v>415468.45999999996</v>
@@ -14364,7 +14383,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LObYxf7IGv6zLovU4B9zwYPoAA3ke1DcAvbbGROwCyGtlChgad/QWgAl5k4wFsSJXFcHKLtfCTVlJl1AbRTVbA==" saltValue="8z9X6amQm1nd2dB0gLqEfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jidwODBekd79VwrP5k4GcSuN0aIOpqLtqxAmx0wwRFmGjUkpVhhoriZ+rqgSq6uUu7XRAT8w5JNftgcWZpGFCg==" saltValue="USXjbQNwnuXUmpxOvdy5dA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="B6:C6"/>
   </mergeCells>
@@ -14699,10 +14718,10 @@
       <c r="A12" s="39">
         <v>2</v>
       </c>
-      <c r="B12" s="505" t="s">
+      <c r="B12" s="572" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="505"/>
+      <c r="C12" s="572"/>
       <c r="D12" s="41"/>
       <c r="E12" s="39"/>
       <c r="F12" s="42"/>
@@ -15087,10 +15106,10 @@
       <c r="F30" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="514">
+      <c r="G30" s="581">
         <v>9773</v>
       </c>
-      <c r="H30" s="516">
+      <c r="H30" s="583">
         <v>11840</v>
       </c>
       <c r="I30" s="91"/>
@@ -15126,8 +15145,8 @@
       <c r="F31" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="515"/>
-      <c r="H31" s="517"/>
+      <c r="G31" s="582"/>
+      <c r="H31" s="584"/>
       <c r="I31" s="72"/>
       <c r="J31" s="92" t="s">
         <v>28</v>
@@ -15355,10 +15374,10 @@
       <c r="A39" s="39">
         <v>2</v>
       </c>
-      <c r="B39" s="505" t="s">
+      <c r="B39" s="572" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="505"/>
+      <c r="C39" s="572"/>
       <c r="D39" s="41"/>
       <c r="E39" s="39"/>
       <c r="F39" s="42"/>
@@ -15374,7 +15393,7 @@
       <c r="B40" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="508">
+      <c r="C40" s="575">
         <f>(E30+E31+H30)/(D30+D31-G30)*1.005</f>
         <v>6.0944869757812121</v>
       </c>
@@ -15393,7 +15412,7 @@
       <c r="B41" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="509"/>
+      <c r="C41" s="576"/>
       <c r="D41" s="41"/>
       <c r="E41" s="39"/>
       <c r="F41" s="42"/>
@@ -15523,18 +15542,18 @@
       <c r="B48" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="510">
+      <c r="C48" s="577">
         <f>(6.88-C40-F48)*(D30+D31-G30)*0.1*0.2</f>
         <v>228.05985000000015</v>
       </c>
-      <c r="D48" s="512">
+      <c r="D48" s="579">
         <v>0.45500000000000002</v>
       </c>
-      <c r="E48" s="512">
+      <c r="E48" s="579">
         <f t="shared" ref="E48:E53" si="1">0.75</f>
         <v>0.75</v>
       </c>
-      <c r="F48" s="512">
+      <c r="F48" s="579">
         <f t="shared" ref="F48:F53" si="2">(E48+D48)/2</f>
         <v>0.60250000000000004</v>
       </c>
@@ -15550,10 +15569,10 @@
       <c r="B49" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="511"/>
-      <c r="D49" s="513"/>
-      <c r="E49" s="513"/>
-      <c r="F49" s="513"/>
+      <c r="C49" s="578"/>
+      <c r="D49" s="580"/>
+      <c r="E49" s="580"/>
+      <c r="F49" s="580"/>
       <c r="G49" s="41"/>
       <c r="H49" s="43"/>
       <c r="I49" s="89"/>
@@ -15608,10 +15627,10 @@
         <f t="shared" si="2"/>
         <v>0.60250000000000004</v>
       </c>
-      <c r="G51" s="506" t="s">
+      <c r="G51" s="573" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="506"/>
+      <c r="H51" s="573"/>
       <c r="I51" s="89"/>
       <c r="J51" s="45"/>
       <c r="K51" s="90"/>
@@ -16317,10 +16336,10 @@
       <c r="F84" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="G84" s="514">
+      <c r="G84" s="581">
         <v>9773</v>
       </c>
-      <c r="H84" s="516">
+      <c r="H84" s="583">
         <v>11840</v>
       </c>
       <c r="I84" s="91"/>
@@ -16356,8 +16375,8 @@
       <c r="F85" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G85" s="515"/>
-      <c r="H85" s="517"/>
+      <c r="G85" s="582"/>
+      <c r="H85" s="584"/>
       <c r="I85" s="72"/>
       <c r="J85" s="92" t="s">
         <v>28</v>
@@ -16610,10 +16629,10 @@
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="507" t="s">
+      <c r="A92" s="574" t="s">
         <v>84</v>
       </c>
-      <c r="B92" s="507"/>
+      <c r="B92" s="574"/>
       <c r="C92" s="156">
         <f>SUM(C80:C91)</f>
         <v>606511.86</v>
@@ -16733,7 +16752,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ib+ctKWc6owjOzy5bR1zZJzLry7WqwWyOGKumw/boxDjScgfFLo3YTZ3/MRwXB5y92IpGwSb0ftrGWMWglpILg==" saltValue="yCtC6nzzgYNaOdcbYDF3tA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Cf/Ylasql4q/XWNwEpR6XMQLfqychVoMcGmKRaZlurw6CM1IIWxKK3ka9jtWj3O/StR9wcA9jhE/ZfYgFnuo2A==" saltValue="Kn+uMBHBjV5RBgoxk8Y/AQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B39:C39"/>
@@ -16996,10 +17015,10 @@
       <c r="A10" s="39">
         <v>2</v>
       </c>
-      <c r="B10" s="505" t="s">
+      <c r="B10" s="572" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="505"/>
+      <c r="C10" s="572"/>
       <c r="D10" s="40"/>
       <c r="E10" s="39"/>
       <c r="F10" s="42"/>
@@ -17409,10 +17428,10 @@
       <c r="A29" s="39">
         <v>2</v>
       </c>
-      <c r="B29" s="505" t="s">
+      <c r="B29" s="572" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="505"/>
+      <c r="C29" s="572"/>
       <c r="D29" s="40"/>
       <c r="E29" s="39"/>
       <c r="F29" s="42"/>
@@ -17813,10 +17832,10 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="507" t="s">
+      <c r="A51" s="574" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="518"/>
+      <c r="B51" s="585"/>
       <c r="C51" s="132">
         <f>SUM(C47:C50)</f>
         <v>137949.41999999998</v>
@@ -17979,7 +17998,7 @@
     </row>
     <row r="60" spans="1:13" ht="24" customHeight="1"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="COmMoy+32mRtFtVUlzxnYSQJQK7S0CBiEH9tq7EqZjARXSAtZvRL/gvGSs1v5YzHGTv0gUC2rT9TknVWmF1ZBw==" saltValue="1/L6xGJwa4QuRKo2usipKA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="N8RmnwKW8nNskdISc7CwDjBtV7nLMBB20Ws2RRDgQjOWsuC8ImsU6y1/L1pIr3OUA6144KqT7YMxHw+jshe5Dw==" saltValue="dT8aeDMbiC/RvCfesULsPw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B29:C29"/>
@@ -18317,10 +18336,10 @@
       <c r="M9" s="84">
         <v>0.3</v>
       </c>
-      <c r="N9" s="519" t="s">
+      <c r="N9" s="586" t="s">
         <v>125</v>
       </c>
-      <c r="O9" s="519"/>
+      <c r="O9" s="586"/>
       <c r="P9" s="85"/>
     </row>
     <row r="10" spans="1:16">
@@ -18510,10 +18529,10 @@
       <c r="A16" s="39">
         <v>2</v>
       </c>
-      <c r="B16" s="505" t="s">
+      <c r="B16" s="572" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="505"/>
+      <c r="C16" s="572"/>
       <c r="D16" s="41"/>
       <c r="E16" s="39"/>
       <c r="F16" s="42"/>
@@ -18879,11 +18898,11 @@
         <f>(D11-G11)*(6.8-C23-E33)*L11*M11</f>
         <v>131.23884375000017</v>
       </c>
-      <c r="D33" s="520"/>
+      <c r="D33" s="587"/>
       <c r="E33" s="54">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F33" s="525"/>
+      <c r="F33" s="592"/>
       <c r="G33" s="41"/>
       <c r="H33" s="43"/>
       <c r="I33" s="89"/>
@@ -18900,11 +18919,11 @@
         <f>(D12-G12)*(6.8-C24-E34)*L12*M12</f>
         <v>4256.685975000004</v>
       </c>
-      <c r="D34" s="521"/>
+      <c r="D34" s="588"/>
       <c r="E34" s="54">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F34" s="526"/>
+      <c r="F34" s="593"/>
       <c r="G34" s="41"/>
       <c r="H34" s="43"/>
       <c r="I34" s="89"/>
@@ -19241,10 +19260,10 @@
       <c r="A49" s="39">
         <v>2</v>
       </c>
-      <c r="B49" s="505" t="s">
+      <c r="B49" s="572" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="505"/>
+      <c r="C49" s="572"/>
       <c r="D49" s="41"/>
       <c r="E49" s="39"/>
       <c r="F49" s="42"/>
@@ -19386,11 +19405,11 @@
         <f>(D44-G44)*(6.8-C51-E56)*L44*M44</f>
         <v>143.33321249999995</v>
       </c>
-      <c r="D56" s="512"/>
+      <c r="D56" s="579"/>
       <c r="E56" s="54">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F56" s="512"/>
+      <c r="F56" s="579"/>
       <c r="G56" s="41"/>
       <c r="H56" s="43"/>
       <c r="I56" s="89"/>
@@ -19407,11 +19426,11 @@
         <f>(D45-G45)*(6.8-C52-E57)*L45*M45</f>
         <v>15711.576824999996</v>
       </c>
-      <c r="D57" s="513"/>
+      <c r="D57" s="580"/>
       <c r="E57" s="54">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F57" s="513"/>
+      <c r="F57" s="580"/>
       <c r="G57" s="41"/>
       <c r="H57" s="43"/>
       <c r="I57" s="89"/>
@@ -19795,11 +19814,11 @@
         <v>137</v>
       </c>
       <c r="C74" s="97"/>
-      <c r="D74" s="522"/>
+      <c r="D74" s="589"/>
       <c r="E74" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="F74" s="527"/>
+      <c r="F74" s="594"/>
       <c r="G74" s="9"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
@@ -19816,11 +19835,11 @@
         <f>(D64-G64)*(6.8-C71-E75)*L64*M64</f>
         <v>186.57518250000064</v>
       </c>
-      <c r="D75" s="523"/>
+      <c r="D75" s="590"/>
       <c r="E75" s="98">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F75" s="528"/>
+      <c r="F75" s="595"/>
       <c r="G75" s="9"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
@@ -19837,11 +19856,11 @@
         <f>(D65-G65)*(6.6-C72-E76)*L65*M65</f>
         <v>82.790599041533596</v>
       </c>
-      <c r="D76" s="523"/>
+      <c r="D76" s="590"/>
       <c r="E76" s="100">
         <v>0.7</v>
       </c>
-      <c r="F76" s="528"/>
+      <c r="F76" s="595"/>
       <c r="G76" s="9"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
@@ -19858,11 +19877,11 @@
         <f>(D66-G66)*(6.6-C73-E77)*L66*M66</f>
         <v>94.501250000000184</v>
       </c>
-      <c r="D77" s="524"/>
+      <c r="D77" s="591"/>
       <c r="E77" s="100">
         <v>0.7</v>
       </c>
-      <c r="F77" s="529"/>
+      <c r="F77" s="596"/>
       <c r="G77" s="9"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
@@ -20523,10 +20542,10 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="518" t="s">
+      <c r="A102" s="585" t="s">
         <v>84</v>
       </c>
-      <c r="B102" s="518"/>
+      <c r="B102" s="585"/>
       <c r="C102" s="109">
         <f t="shared" ref="C102:I102" si="3">SUM(C88:C101)</f>
         <v>1228974.6923961663</v>
@@ -20603,7 +20622,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mpDkwwU1ybE7b18nbGzGICscWiRTb8Ved+5lknSRPJU+gELCoWZKwObkzjT4l+qpbPQ+pqE8XNMka+vcetQD3w==" saltValue="bwC28p+ZAYw5zvYY+nk6fQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lhmjAjOSEWhz3q6hR1IHkm/BzJ87mna3cLFq6ahI9tCWHCr/tbJixcZendeS2jfzneNa0sRoVmHYETOdOY0qSQ==" saltValue="x4HGXPhPKDNJtoM5iOYrNg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="B16:C16"/>
@@ -22502,11 +22521,11 @@
       <c r="AA32" s="195"/>
     </row>
     <row r="33" spans="1:28" s="195" customFormat="1" ht="12.75">
-      <c r="A33" s="530" t="s">
+      <c r="A33" s="597" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="531"/>
-      <c r="C33" s="532"/>
+      <c r="B33" s="598"/>
+      <c r="C33" s="599"/>
       <c r="D33" s="240">
         <f>SUM(D10:D32)</f>
         <v>306394.8</v>
@@ -22784,7 +22803,7 @@
       <c r="G45" s="242"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FHLi+SIcO3TpfpwuuycFEWcUuxOTIjVu6mzNPDUZkqHqlVI4+LN4SCHIO4iLKJ3Hszyau/XcCsBdBz420F08qw==" saltValue="cSZgF3kB6rAQ1he3AiA1HA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YaAu8dtMwCwOltupGci7Yl3ofRiXukp59Ce4cnV4SUTjCzGCUCTKw50t69uhsHJeyjkCLrWXsjh2j8ZVb+EVXQ==" saltValue="x05zNnCHOWaiqfOk0JB1VQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B5:Z33" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A33:C33"/>
@@ -26677,7 +26696,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4prhZtNnQDmSIkXooHnL4ehU6qoCYuk+hInpLp7FAUlbzL5Kk6HoINj0l3NvwKJtzi4miAR6p1PWD9a+173xIQ==" saltValue="Oi3/xGhkhtonhVRoOQoneQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KFCPXaMFqWvv1W8JnqcCbyzgpfLp/BRcBZp2tkSwz2ISQe9uW3c0zHxjfjbXybmsOVK3CrGq4OwPs/ELJgJpFA==" saltValue="w00aCHQmkqRvk2/H1ftBOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A2:Z55" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="Q3">
@@ -26765,7 +26784,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27008,7 +27027,7 @@
         <v>386</v>
       </c>
       <c r="O4" s="478" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P4" s="478" t="s">
         <v>390</v>
@@ -29330,9 +29349,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y75usXOx7x0kE6t5GhVBYAIbc335nbF2YVF9JJ14SK/SwsfEn6gNcs73zvyXZGzhMTIB1AEqyp57mZKOBWyHfA==" saltValue="wOoo0eK9T5Cgg5k9NyspbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FFvL2IZKthTWXRV947iM22jPMeZy6WGSrQS8tOQr4tt2l7ZT73MOK375Jux6yWJ3wIbBK/bWBsuIZnem8rl1gA==" saltValue="DugIRqKVp3suNkuvOvm48g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A2:Z40" xr:uid="{00000000-0009-0000-0000-000006000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z40">
+    <sortState ref="A3:Z40">
       <sortCondition ref="F2:F40"/>
     </sortState>
   </autoFilter>

--- a/6月份 销售结算V2.xlsx
+++ b/6月份 销售结算V2.xlsx
@@ -8,8 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XLS_ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27E0005-10F6-469E-9C59-E9E743250DEA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="UzIgY9IIHhkMIdqKQMbUkn1LCpbBUdMfqzzJ552ieA+fJciZ/O7EgCrdWGvpy3HuTZkXzRfehdODbE2xGjfu9A==" workbookSaltValue="EvCo75wwl2TinGOsmcY6jA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9505467B-0E6F-499E-8CEF-917E6F290ECA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hqYHl7349CHuT/fMFRoIOil10usq+R5+beOdmftm+OHwOi96sESYnC8VXuIDRCLcXJbY4UCXGsqb0LwMoqglOg==" workbookSaltValue="rSYtvkE0XUBJ49aFghaBrg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12526,7 +12526,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Zt9AJVB826RW+0AYPyKh6m0+G/8XVlnLLx+Rf/2vXIzuSUGZ1mYYrb3FDUCOwRG5B8nTCsf3l8E1nO42LIwRBA==" saltValue="w7OkY3Vsy/1TtaScpgZeyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qC+MeCie2835Oae8pQ/KWkUHKrhubfQwdZj+AXXUZiaPxCzcjjlrPY/ymmhVahZAgRpn8Yrox9wod/hkkxm+AA==" saltValue="9g4uRix5XMTiPTQLHQoeiw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -12538,7 +12538,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12678,7 +12678,7 @@
       <c r="N6" s="499"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Lzb7Q8+0mrX8ygdAmgEKebhZAZlNQi9ZdtlnI/jxwxrDLCq3QWhkwureT27+8ZTmhvA3W+lU3e3qWpuImiP3OA==" saltValue="p1DE4hR8P7nUGNmkVopXwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ec8hwNIGeRxQudz7W8pHzYzW0NynATFK3mZRYBYhowEIHpK4sP1Zm6D+5VBbfUPRz1ev8V8fAaLoEhXSX3FQYA==" saltValue="OLAcQColgoai3NIN5NaFTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -14229,7 +14229,7 @@
       <c r="L20" s="449"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="baG67jr3mLEx3md0hVupz61XDrGSztrOqL8nKsPGp7Fw1CQPiDQOKvlwiwqvA0xzcHzyCL3ZsJq5OBqGFN1+uA==" saltValue="c15BNmaZXM+xSTS5z4IzBA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uoHF+MtSI+8TG7ehyf2UHf9k5uUGJhKNqtblATK3rBUlN9gPzzvUHQMLRM9lKOZkqj334Xdu/Z5eIRsAEP+sBA==" saltValue="hm7EqZzD/8/MjYL5ECb4oQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="D1:I1"/>
   </mergeCells>
@@ -14383,7 +14383,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jidwODBekd79VwrP5k4GcSuN0aIOpqLtqxAmx0wwRFmGjUkpVhhoriZ+rqgSq6uUu7XRAT8w5JNftgcWZpGFCg==" saltValue="USXjbQNwnuXUmpxOvdy5dA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6Lmj1X1/X0RfAr5QG43n5HLoqF8A+/KVbDE69uN3PltJUcxi0BiMc8TEFPt78Detjc3DXJu9GDzkcZuwsJmshA==" saltValue="DkKDON2u0kxvKuTOwju9RQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="B6:C6"/>
   </mergeCells>
